--- a/biology/Botanique/Glossocalyx_brevipes/Glossocalyx_brevipes.xlsx
+++ b/biology/Botanique/Glossocalyx_brevipes/Glossocalyx_brevipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossocalyx brevipes est une espèce d'arbres ou arbustes de la famille des Siparunaceae et du genre Glossocalyx, présente en Afrique tropicale de l'Ouest et du Centre.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 septembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 septembre 2017) :
 variété Glossocalyx brevipes var. letouzeyi
-Selon Tropicos                                           (30 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Glossocalyx brevipes var. brevipes
 variété Glossocalyx brevipes var. letouzeyi Fouilloy</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille est d'environ 3 à 8 m. Son écorce est fibreuse et aromatique. Ses fleurs dégagent une odeur de noix de muscade[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille est d'environ 3 à 8 m. Son écorce est fibreuse et aromatique. Ses fleurs dégagent une odeur de noix de muscade.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve l'espèce dans la forêt tropicale de basse altitude au Nigeria, au Cameroun[4], également au Gabon[5].
-La variété Glossocalyx brevipes Benth. var. letouzeyi R. Fouilloy, décrite pour la première fois en 1974, est endémique du Cameroun[6].
-Plusieurs spécimens y ont été trouvés en 1962 par René Letouzey entre Fenda, à 60 km à l'est de Kribi et la rivière Kienke, dans la région du Sud[7]. Un paratype (Zeuxine stammleri Schltr.) avait été collecté à Bipindi dès 1918 par E. Annet, puis renommé Glossocalyx brevipes Benth. var. letouzeyi Fouilloy en 1997[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve l'espèce dans la forêt tropicale de basse altitude au Nigeria, au Cameroun, également au Gabon.
+La variété Glossocalyx brevipes Benth. var. letouzeyi R. Fouilloy, décrite pour la première fois en 1974, est endémique du Cameroun.
+Plusieurs spécimens y ont été trouvés en 1962 par René Letouzey entre Fenda, à 60 km à l'est de Kribi et la rivière Kienke, dans la région du Sud. Un paratype (Zeuxine stammleri Schltr.) avait été collecté à Bipindi dès 1918 par E. Annet, puis renommé Glossocalyx brevipes Benth. var. letouzeyi Fouilloy en 1997.
 </t>
         </is>
       </c>
